--- a/artfynd/A 52981-2023 artfynd.xlsx
+++ b/artfynd/A 52981-2023 artfynd.xlsx
@@ -11591,7 +11591,7 @@
         <v>130828516</v>
       </c>
       <c r="B108" t="n">
-        <v>92534</v>
+        <v>92538</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>

--- a/artfynd/A 52981-2023 artfynd.xlsx
+++ b/artfynd/A 52981-2023 artfynd.xlsx
@@ -11591,7 +11591,7 @@
         <v>130828516</v>
       </c>
       <c r="B108" t="n">
-        <v>92538</v>
+        <v>92539</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
